--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H2">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>17.17595836510666</v>
+        <v>0.228166830556</v>
       </c>
       <c r="R2">
-        <v>154.58362528596</v>
+        <v>2.053501475004</v>
       </c>
       <c r="S2">
-        <v>0.1970105278212071</v>
+        <v>0.002377841866491927</v>
       </c>
       <c r="T2">
-        <v>0.1970105278212071</v>
+        <v>0.002377841866491927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H3">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>56.17998806732</v>
+        <v>0.7823844630013334</v>
       </c>
       <c r="R3">
-        <v>505.61989260588</v>
+        <v>7.041460167012</v>
       </c>
       <c r="S3">
-        <v>0.6443919382464743</v>
+        <v>0.008153623939483051</v>
       </c>
       <c r="T3">
-        <v>0.6443919382464744</v>
+        <v>0.008153623939483051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H4">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>11.55190960473333</v>
+        <v>0.3059432111222223</v>
       </c>
       <c r="R4">
-        <v>103.9671864426</v>
+        <v>2.7534889001</v>
       </c>
       <c r="S4">
-        <v>0.1325019402233077</v>
+        <v>0.003188388839879374</v>
       </c>
       <c r="T4">
-        <v>0.1325019402233077</v>
+        <v>0.003188388839879374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H5">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.1261020449866666</v>
+        <v>0.001463851594666667</v>
       </c>
       <c r="R5">
-        <v>1.13491840488</v>
+        <v>0.013174664352</v>
       </c>
       <c r="S5">
-        <v>0.001446407234697702</v>
+        <v>1.525553736118126E-05</v>
       </c>
       <c r="T5">
-        <v>0.001446407234697702</v>
+        <v>1.525553736118126E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H6">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I6">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J6">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N6">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q6">
-        <v>0.434072945596</v>
+        <v>16.38377348244</v>
       </c>
       <c r="R6">
-        <v>3.906656510363999</v>
+        <v>147.45396134196</v>
       </c>
       <c r="S6">
-        <v>0.004978874442226385</v>
+        <v>0.1707435845198561</v>
       </c>
       <c r="T6">
-        <v>0.004978874442226387</v>
+        <v>0.1707435845198561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H7">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I7">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J7">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.877361</v>
       </c>
       <c r="O7">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P7">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q7">
-        <v>1.419787611588</v>
+        <v>56.17998806732001</v>
       </c>
       <c r="R7">
-        <v>12.778088504292</v>
+        <v>505.61989260588</v>
       </c>
       <c r="S7">
-        <v>0.01628515281692847</v>
+        <v>0.5854800514166038</v>
       </c>
       <c r="T7">
-        <v>0.01628515281692847</v>
+        <v>0.5854800514166038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H8">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I8">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J8">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N8">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q8">
-        <v>0.29194128926</v>
+        <v>21.96859314433334</v>
       </c>
       <c r="R8">
-        <v>2.62747160334</v>
+        <v>197.717338299</v>
       </c>
       <c r="S8">
-        <v>0.003348605432507353</v>
+        <v>0.2289458130229949</v>
       </c>
       <c r="T8">
-        <v>0.003348605432507354</v>
+        <v>0.2289458130229949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.83236</v>
+      </c>
+      <c r="H9">
+        <v>14.49708</v>
+      </c>
+      <c r="I9">
+        <v>0.9862648898167845</v>
+      </c>
+      <c r="J9">
+        <v>0.9862648898167844</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.122124</v>
-      </c>
-      <c r="H9">
-        <v>0.366372</v>
-      </c>
-      <c r="I9">
-        <v>0.02464918647431296</v>
-      </c>
-      <c r="J9">
-        <v>0.02464918647431297</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N9">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q9">
-        <v>0.003186866488</v>
+        <v>0.10511349472</v>
       </c>
       <c r="R9">
-        <v>0.028681798392</v>
+        <v>0.9460214524800001</v>
       </c>
       <c r="S9">
-        <v>3.655378265075909E-05</v>
+        <v>0.001095440857329828</v>
       </c>
       <c r="T9">
-        <v>3.65537826507591E-05</v>
+        <v>0.001095440857329828</v>
       </c>
     </row>
   </sheetData>
